--- a/hows_life_dictionary.xlsx
+++ b/hows_life_dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\WDP\Well being database\Data Monitor\data_monitor\cwb_page\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\WDP\Well being database\Data Monitor\data_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B26EF12-C97F-4AB0-8EAE-B838B4354ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8543DEE4-8CE9-40A0-9727-80B41BD48E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1563,10 +1563,10 @@
     <t>note</t>
   </si>
   <si>
-    <t>The time series for the OECD average is calculated using a “last observation carried forward” approach, whereby each country’s most recent value is used until a new observation is reported, allowing for a consistent time series despite gaps in the data.</t>
-  </si>
-  <si>
-    <t>The time series for the OECD average is calculated using a “last observation carried forward” approach, whereby each country’s most recent value is used until a new observation is reported, allowing for a consistent time series despite gaps in the data.&lt;br&gt;&lt;br&gt;The OECD average is based on both self-reported and observed obesity rates; since outcomes differ by data collection methodology the average should be interpreted with caution.</t>
+    <t>The OECD average time series for this indicator is calculated using a last observation carried forward method to address gaps in country-level time series.&lt;br&gt;&lt;br&gt;The OECD average is based on both self-reported and observed obesity rates; since outcomes differ by data collection methodology the average should be interpreted with caution.</t>
+  </si>
+  <si>
+    <t>The OECD average time series for this indicator is calculated using a last observation carried forward method to address gaps in country-level time series.</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1912,7 @@
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2004,7 +2004,7 @@
         <v>498</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="261" x14ac:dyDescent="0.35">
@@ -2024,7 +2024,7 @@
         <v>498</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
@@ -2661,7 +2661,7 @@
         <v>156</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="145" x14ac:dyDescent="0.35">
@@ -3995,7 +3995,7 @@
         <v>370</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="145" x14ac:dyDescent="0.35">

--- a/hows_life_dictionary.xlsx
+++ b/hows_life_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\WDP\Well being database\Data Monitor\data_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8543DEE4-8CE9-40A0-9727-80B41BD48E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BD97AE-B906-4AE5-8A57-34A25C7AB128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1563,10 +1563,10 @@
     <t>note</t>
   </si>
   <si>
-    <t>The OECD average time series for this indicator is calculated using a last observation carried forward method to address gaps in country-level time series.&lt;br&gt;&lt;br&gt;The OECD average is based on both self-reported and observed obesity rates; since outcomes differ by data collection methodology the average should be interpreted with caution.</t>
-  </si>
-  <si>
-    <t>The OECD average time series for this indicator is calculated using a last observation carried forward method to address gaps in country-level time series.</t>
+    <t>The OECD average is calculated using a last observation carried forward approach, whereby each country’s most recent available observation is carried forward to subsequent years until updated data become available. This method allows for the construction of a consistent time series for the OECD average in the presence of gaps in country-level data and should be interpreted with this in mind. Information on which years include carried-forward values is available in the OECD Data Explorer, accessible via the &lt;b&gt;OECD How's Life? database&lt;/b&gt; link above.</t>
+  </si>
+  <si>
+    <t>The OECD average is calculated using a last observation carried forward approach, whereby each country’s most recent available observation is carried forward to subsequent years until updated data become available. This method allows for the construction of a consistent time series for the OECD average in the presence of gaps in country-level data and should be interpreted with this in mind. Information on which years include carried-forward values is available in the OECD Data Explorer, accessible via the &lt;b&gt;OECD How's Life? database&lt;/b&gt; link above.&lt;br&gt;&lt;br&gt;The OECD average is based on both self-reported and measured obesity rates. As outcomes differ by data collection methodology, the average should be interpreted with caution. Information on the methodology used is available in the OECD How’s Life? Well-being Database metadata found &lt;a href='https://www.oecd.org/content/dam/oecd/en/topics/policy-sub-issues/measuring-well-being-and-progress/oecd-well-being-database-definitions.pdf'&gt;here.&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1602,16 +1602,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1911,14 +1908,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="102.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1944,278 +1941,290 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>388</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>498</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="261" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="290" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>386</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>387</v>
+        <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>388</v>
+        <v>406</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>498</v>
+        <v>156</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>367</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>368</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>368</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>369</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>390</v>
+        <v>506</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>385</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>391</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="13" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="203" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="15" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="203" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="290" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>395</v>
@@ -2223,650 +2232,641 @@
     </row>
     <row r="16" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="290" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="19" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="20" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="21" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="26" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="27" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="28" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="29" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="30" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="31" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="377" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="32" spans="1:6" ht="377" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="33" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="34" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="35" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="36" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>139</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="37" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="38" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E37" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="145" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E38" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E39" t="s">
         <v>161</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="42" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="43" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>175</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="45" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>186</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="46" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>190</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="261" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="47" spans="1:6" ht="261" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>191</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="48" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E47" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>196</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>508</v>
@@ -2875,1130 +2875,1127 @@
         <v>194</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>201</v>
+        <v>508</v>
       </c>
       <c r="E49" t="s">
         <v>194</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
         <v>194</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="52" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>207</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>211</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="53" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>213</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="E52" t="s">
-        <v>215</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E53" t="s">
         <v>215</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
         <v>215</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="56" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>228</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="57" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>230</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>233</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="58" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>235</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>237</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="59" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>239</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>241</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="60" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>245</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>247</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>249</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="62" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>251</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>228</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>255</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E62" t="s">
-        <v>259</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>494</v>
+        <v>256</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>495</v>
+        <v>257</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>425</v>
+        <v>258</v>
+      </c>
+      <c r="E63" t="s">
+        <v>259</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>262</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>264</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>266</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>268</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="70" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>270</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="71" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>274</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>268</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>277</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E71" t="s">
-        <v>280</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>488</v>
+        <v>279</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="E72" t="s">
         <v>280</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>278</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E73" t="s">
+        <v>280</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="74" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>282</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="E73" t="s">
-        <v>286</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="232" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>288</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="E74" t="s">
         <v>286</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>288</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E75" t="s">
+        <v>286</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="76" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>291</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>295</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="77" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>297</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>25</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>300</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>302</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="E79" t="s">
-        <v>306</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>308</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="E80" t="s">
         <v>306</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>491</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>445</v>
+        <v>309</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
+      </c>
+      <c r="E81" t="s">
+        <v>306</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>311</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>148</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="84" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>315</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>317</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="85" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>319</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>322</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>323</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>503</v>
+        <v>450</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>326</v>
+        <v>452</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>327</v>
+        <v>503</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E87" t="s">
-        <v>322</v>
+        <v>453</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>449</v>
+        <v>326</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>450</v>
+        <v>327</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>451</v>
+        <v>328</v>
+      </c>
+      <c r="E88" t="s">
+        <v>322</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>332</v>
+        <v>455</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E90" t="s">
-        <v>322</v>
+        <v>456</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>450</v>
+        <v>332</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>451</v>
+        <v>333</v>
+      </c>
+      <c r="E91" t="s">
+        <v>322</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E93" t="s">
-        <v>190</v>
+        <v>460</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>463</v>
+        <v>338</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>464</v>
+        <v>338</v>
+      </c>
+      <c r="E94" t="s">
+        <v>190</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>337</v>
+        <v>462</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>343</v>
+        <v>465</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E96" t="s">
-        <v>190</v>
+        <v>466</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="232" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>467</v>
+        <v>343</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>468</v>
+        <v>343</v>
+      </c>
+      <c r="E97" t="s">
+        <v>190</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>345</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>39</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="174" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="100" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>348</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="101" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>349</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>286</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="102" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>354</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>25</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="145" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>357</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>358</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>359</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>25</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="106" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>364</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
         <v>39</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>366</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E107" t="s">
-        <v>369</v>
+        <v>480</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>371</v>
       </c>
@@ -4018,7 +4015,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>375</v>
       </c>
@@ -4038,7 +4035,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>380</v>
       </c>
@@ -4059,8 +4056,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H110">
-    <sortCondition ref="A1:A110"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G110">
+    <sortCondition ref="G1:G110"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/hows_life_dictionary.xlsx
+++ b/hows_life_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Data\WDP\Well being database\Data Monitor\data_monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BD97AE-B906-4AE5-8A57-34A25C7AB128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D164EECE-07A7-4E95-B06E-B5C9E12207F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -859,9 +859,6 @@
     <t>Housing cost overburden</t>
   </si>
   <si>
-    <t>Housing cost overburden refers to the percentage of households in the bottom 40% of the income distribution devoting more than 40% of their disposable income to housing costs, where the latter 40% threshold is based on the methodology used by Eurostat for EU member countries. Housing costs include actual rents and mortgage costs (both principal repayment and mortgage interest); in contrast to the housing affordability measure sourced from National Accounts, no imputed rentals for owner-occupied homes are included. No data on mortgage principal repayments are available for Denmark. For Chile, Mexico, Korea and the United States, gross income instead of disposable income is used. Data are drawn from the OECD Affordable Housing Database, which is sourced from household survey data.</t>
-  </si>
-  <si>
     <t>3_4</t>
   </si>
   <si>
@@ -1340,9 +1337,6 @@
     <t>Percentage of household gross adjusted disposable income remaining, after deductions for housing rents and maintenance</t>
   </si>
   <si>
-    <t>Percentage of households in the bottom 40% of the income distribution spending more than 40% of their disposable income on housing costs</t>
-  </si>
-  <si>
     <t>Percentage of households with broadband internet access at home</t>
   </si>
   <si>
@@ -1567,6 +1561,12 @@
   </si>
   <si>
     <t>The OECD average is calculated using a last observation carried forward approach, whereby each country’s most recent available observation is carried forward to subsequent years until updated data become available. This method allows for the construction of a consistent time series for the OECD average in the presence of gaps in country-level data and should be interpreted with this in mind. Information on which years include carried-forward values is available in the OECD Data Explorer, accessible via the &lt;b&gt;OECD How's Life? database&lt;/b&gt; link above.&lt;br&gt;&lt;br&gt;The OECD average is based on both self-reported and measured obesity rates. As outcomes differ by data collection methodology, the average should be interpreted with caution. Information on the methodology used is available in the OECD How’s Life? Well-being Database metadata found &lt;a href='https://www.oecd.org/content/dam/oecd/en/topics/policy-sub-issues/measuring-well-being-and-progress/oecd-well-being-database-definitions.pdf'&gt;here.&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Percentage of population in the bottom 40% of the income distribution spending more than 40% of their disposable income on housing costs</t>
+  </si>
+  <si>
+    <t>Housing cost overburden refers to the percentage of population in the bottom 40% of the income distribution devoting more than 40% of their disposable income to housing costs, where the latter 40% threshold is based on the methodology used by Eurostat for EU member countries. Housing costs include actual rents and mortgage costs (both principal repayment and mortgage interest); in contrast to the housing affordability measure sourced from National Accounts, no imputed rentals for owner-occupied homes are included. No data on mortgage principal repayments are available for Denmark. For Chile, Mexico, Korea and the United States, gross income instead of disposable income is used. Data are drawn from the OECD Affordable Housing Database, which is sourced from household survey data.</t>
   </si>
 </sst>
 </file>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1938,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="261" x14ac:dyDescent="0.35">
@@ -1952,16 +1952,16 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="261" x14ac:dyDescent="0.35">
@@ -1969,19 +1969,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
@@ -1995,7 +1995,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -2004,7 +2004,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="290" x14ac:dyDescent="0.35">
@@ -2018,7 +2018,7 @@
         <v>155</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E5" t="s">
         <v>152</v>
@@ -2027,30 +2027,30 @@
         <v>156</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E6" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
@@ -2064,7 +2064,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -2078,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -2104,7 +2104,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2124,7 +2124,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -2164,13 +2164,13 @@
         <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="174" x14ac:dyDescent="0.35">
@@ -2178,16 +2178,16 @@
         <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -2227,7 +2227,7 @@
         <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="203" x14ac:dyDescent="0.35">
@@ -2235,16 +2235,16 @@
         <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="290" x14ac:dyDescent="0.35">
@@ -2252,16 +2252,16 @@
         <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="203" x14ac:dyDescent="0.35">
@@ -2275,13 +2275,13 @@
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E18" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
@@ -2295,13 +2295,13 @@
         <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
@@ -2615,7 +2615,7 @@
         <v>136</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E35" t="s">
         <v>137</v>
@@ -2635,7 +2635,7 @@
         <v>141</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E36" t="s">
         <v>142</v>
@@ -2675,7 +2675,7 @@
         <v>151</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E38" t="s">
         <v>152</v>
@@ -2741,7 +2741,7 @@
         <v>39</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="174" x14ac:dyDescent="0.35">
@@ -2749,16 +2749,16 @@
         <v>171</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
@@ -2792,7 +2792,7 @@
         <v>179</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E44" t="s">
         <v>180</v>
@@ -2826,19 +2826,19 @@
         <v>188</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E46" t="s">
         <v>190</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="261" x14ac:dyDescent="0.35">
@@ -2846,16 +2846,16 @@
         <v>191</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
@@ -2869,7 +2869,7 @@
         <v>193</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E48" t="s">
         <v>194</v>
@@ -2889,7 +2889,7 @@
         <v>197</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E49" t="s">
         <v>194</v>
@@ -2969,7 +2969,7 @@
         <v>214</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E53" t="s">
         <v>215</v>
@@ -3069,7 +3069,7 @@
         <v>236</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E58" t="s">
         <v>237</v>
@@ -3086,10 +3086,10 @@
         <v>240</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="E59" t="s">
         <v>241</v>
@@ -3109,7 +3109,7 @@
         <v>244</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E60" t="s">
         <v>245</v>
@@ -3129,7 +3129,7 @@
         <v>248</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E61" t="s">
         <v>249</v>
@@ -3149,7 +3149,7 @@
         <v>253</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E62" t="s">
         <v>228</v>
@@ -3175,7 +3175,7 @@
         <v>259</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
@@ -3183,16 +3183,16 @@
         <v>260</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
@@ -3200,16 +3200,16 @@
         <v>261</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
@@ -3226,7 +3226,7 @@
         <v>48</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="87" x14ac:dyDescent="0.35">
@@ -3234,16 +3234,16 @@
         <v>264</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
@@ -3251,16 +3251,16 @@
         <v>265</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="F68" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
@@ -3274,7 +3274,7 @@
         <v>267</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E69" t="s">
         <v>268</v>
@@ -3294,7 +3294,7 @@
         <v>272</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -3314,745 +3314,745 @@
         <v>275</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="E71" t="s">
         <v>268</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>276</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E72" t="s">
         <v>279</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E73" t="s">
+        <v>279</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E73" t="s">
-        <v>280</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" t="s">
         <v>285</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E75" t="s">
+        <v>285</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E75" t="s">
-        <v>286</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>290</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" t="s">
         <v>294</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E77" t="s">
         <v>25</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="F79" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" t="s">
         <v>305</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>307</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E81" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="E83" t="s">
         <v>148</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E84" t="s">
         <v>316</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" t="s">
         <v>321</v>
       </c>
-      <c r="E85" t="s">
-        <v>322</v>
-      </c>
       <c r="F85" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="F86" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>324</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="E88" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="F90" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E91" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="F92" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="F93" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E94" t="s">
         <v>190</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="D97" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E97" t="s">
         <v>190</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="232" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>344</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E99" t="s">
         <v>39</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="F100" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>348</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="E101" t="s">
-        <v>286</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>353</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="E102" t="s">
         <v>25</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="F104" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>358</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E105" t="s">
         <v>25</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="C106" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E106" t="s">
         <v>39</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>370</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E108" t="s">
         <v>372</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="F108" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E109" t="s">
         <v>377</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="F109" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>379</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" t="s">
         <v>382</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
